--- a/DailyTimeSheet.xlsx
+++ b/DailyTimeSheet.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raja_d02\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Raja\DailyTimeSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" firstSheet="4" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" firstSheet="4" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Time Management" sheetId="2" r:id="rId1"/>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="199">
   <si>
     <t>10-11</t>
   </si>
@@ -6510,8 +6510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:X139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7208,7 +7208,7 @@
       </c>
       <c r="D25" s="101"/>
       <c r="E25" s="95">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(D25),,D25-D24)</f>
         <v>0</v>
       </c>
       <c r="F25" s="95">
@@ -11113,8 +11113,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11247,7 +11247,9 @@
       <c r="C4" s="115" t="s">
         <v>195</v>
       </c>
-      <c r="D4" s="115"/>
+      <c r="D4" s="115" t="s">
+        <v>186</v>
+      </c>
       <c r="E4" s="115"/>
       <c r="F4" s="115"/>
       <c r="G4" s="115"/>

--- a/DailyTimeSheet.xlsx
+++ b/DailyTimeSheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" firstSheet="4" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Time Management" sheetId="2" r:id="rId1"/>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="203">
   <si>
     <t>10-11</t>
   </si>
@@ -755,6 +755,22 @@
   </si>
   <si>
     <t>7 h</t>
+  </si>
+  <si>
+    <t>1.1 almond, 1 dates, 1walnut, 6 dry grapes
+2.Coffee</t>
+  </si>
+  <si>
+    <t>1. Veg Soup
+2.Chicken Salad
+3.Masala Peanut</t>
+  </si>
+  <si>
+    <t>Water(ltr)</t>
+  </si>
+  <si>
+    <t>1.1 almond, 1 dates, 1.walnut, 6 dry grapes
+2.small boost</t>
   </si>
 </sst>
 </file>
@@ -1845,7 +1861,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2095,7 +2110,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2197,7 +2211,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2272,7 +2285,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6510,8 +6522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:X139"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11111,10 +11123,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11130,9 +11142,10 @@
     <col min="9" max="9" width="5.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.7109375" customWidth="1"/>
     <col min="11" max="11" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="120" customFormat="1">
+    <row r="1" spans="1:12" s="120" customFormat="1">
       <c r="A1" s="112" t="s">
         <v>168</v>
       </c>
@@ -11166,8 +11179,11 @@
       <c r="K1" s="112" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="60">
+      <c r="L1" s="112" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="60">
       <c r="A2" s="63">
         <v>42697</v>
       </c>
@@ -11201,8 +11217,11 @@
       <c r="K2" s="115" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="60">
+      <c r="L2" s="115">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="60">
       <c r="A3" s="63">
         <v>42698</v>
       </c>
@@ -11236,8 +11255,11 @@
       <c r="K3" s="115" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="45">
+      <c r="L3" s="115">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="60">
       <c r="A4" s="63">
         <v>42699</v>
       </c>
@@ -11248,13 +11270,17 @@
         <v>195</v>
       </c>
       <c r="D4" s="115" t="s">
-        <v>186</v>
-      </c>
-      <c r="E4" s="115"/>
-      <c r="F4" s="115"/>
+        <v>199</v>
+      </c>
+      <c r="E4" s="115" t="s">
+        <v>200</v>
+      </c>
+      <c r="F4" s="115" t="s">
+        <v>202</v>
+      </c>
       <c r="G4" s="115"/>
       <c r="H4" s="115">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" s="115" t="s">
         <v>190</v>
@@ -11264,6 +11290,9 @@
       </c>
       <c r="K4" s="115" t="s">
         <v>190</v>
+      </c>
+      <c r="L4" s="115">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/DailyTimeSheet.xlsx
+++ b/DailyTimeSheet.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Raja\DailyTimeSheet\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" firstSheet="3" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Time Management" sheetId="2" r:id="rId1"/>
@@ -26,7 +21,7 @@
   <externalReferences>
     <externalReference r:id="rId11"/>
   </externalReferences>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +36,7 @@
     <author>Narender Raj</author>
   </authors>
   <commentList>
-    <comment ref="D13" authorId="0" shapeId="0">
+    <comment ref="D13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -65,7 +60,7 @@
     <author>Narender Raj</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0">
+    <comment ref="A2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -84,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="215">
   <si>
     <t>10-11</t>
   </si>
@@ -772,21 +767,65 @@
     <t>1.1 almond, 1 dates, 1.walnut, 6 dry grapes
 2.small boost</t>
   </si>
+  <si>
+    <t>Maggie 2 packet</t>
+  </si>
+  <si>
+    <t>Tea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Cumin Tea
+</t>
+  </si>
+  <si>
+    <t>3 vada</t>
+  </si>
+  <si>
+    <t>1. 2 piece wheat bread
+2.2 spoon Peanut Butter
+3.1 omlet</t>
+  </si>
+  <si>
+    <t>1.Tea
+2.1 egg puff</t>
+  </si>
+  <si>
+    <t>1.non veg soup
+2.200grms chicken</t>
+  </si>
+  <si>
+    <t>7h 8min</t>
+  </si>
+  <si>
+    <t>7h 9min</t>
+  </si>
+  <si>
+    <t>5 banana</t>
+  </si>
+  <si>
+    <t>1. Rice
+2.fish
+3.nandu
+4.mutton</t>
+  </si>
+  <si>
+    <t>Coffe</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="9">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm;@"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="[$-409]d\-mmm\-yy;@"/>
-    <numFmt numFmtId="167" formatCode="0.0"/>
-    <numFmt numFmtId="168" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="169" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="170" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="171" formatCode="d\ mmm\ yyyy"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm;@"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="169" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="170" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="171" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="172" formatCode="d\ mmm\ yyyy"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1423,7 +1462,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1488,19 +1527,19 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="0" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="12" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="12" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="44"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="11" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="12" fillId="11" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="44"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1509,41 +1548,41 @@
     <xf numFmtId="0" fontId="15" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="11" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="13" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="13" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="11" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="13" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="11" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="11" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="10" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="5" fillId="10" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="11" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="11" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="11" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="11" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="11" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="1" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="11" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="11" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="11" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="1" fillId="11" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="1" fillId="11" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1559,16 +1598,16 @@
     <xf numFmtId="0" fontId="5" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="10" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="10" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="5" fillId="10" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="10" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="10" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="10" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="5" fillId="10" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1583,65 +1622,65 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="11" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="0" fillId="11" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="13" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="13" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="11" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="11" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="11" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="11" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="11" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="13" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="13" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="11" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="11" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="0" fillId="11" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="13" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="13" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="11" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="11" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="11" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="11" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="11" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1657,7 +1696,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="11" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="11" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1676,16 +1715,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="11" fillId="12" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="12" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="44"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="12" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="12" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="44"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="44"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="12" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="12" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="44"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1813,9 +1852,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-IN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1861,6 +1900,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1869,23 +1909,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -2013,7 +2036,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-DD52-4D60-883B-0A8CFE6CDE5D}"/>
             </c:ext>
@@ -2054,11 +2077,95 @@
                 <c:pt idx="0">
                   <c:v>78</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-DD52-4D60-883B-0A8CFE6CDE5D}"/>
             </c:ext>
@@ -2072,11 +2179,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="107386064"/>
-        <c:axId val="107387744"/>
+        <c:axId val="94923776"/>
+        <c:axId val="94934144"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="107386064"/>
+        <c:axId val="94923776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="30"/>
@@ -2110,6 +2217,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2118,23 +2226,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -2170,13 +2261,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="107387744"/>
+        <c:crossAx val="94934144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:minorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="107387744"/>
+        <c:axId val="94934144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="120"/>
@@ -2211,6 +2302,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2219,23 +2311,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -2271,7 +2346,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="107386064"/>
+        <c:crossAx val="94923776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2285,6 +2360,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3078,169 +3154,225 @@
           </cell>
         </row>
         <row r="23">
-          <cell r="D23"/>
+          <cell r="D23">
+            <v>0</v>
+          </cell>
           <cell r="G23">
             <v>77.310344827586221</v>
           </cell>
         </row>
         <row r="24">
-          <cell r="D24"/>
+          <cell r="D24">
+            <v>0</v>
+          </cell>
           <cell r="G24">
             <v>76.965517241379331</v>
           </cell>
         </row>
         <row r="25">
-          <cell r="D25"/>
+          <cell r="D25">
+            <v>0</v>
+          </cell>
           <cell r="G25">
             <v>76.620689655172441</v>
           </cell>
         </row>
         <row r="26">
-          <cell r="D26"/>
+          <cell r="D26">
+            <v>0</v>
+          </cell>
           <cell r="G26">
             <v>76.275862068965552</v>
           </cell>
         </row>
         <row r="27">
-          <cell r="D27"/>
+          <cell r="D27">
+            <v>0</v>
+          </cell>
           <cell r="G27">
             <v>75.931034482758662</v>
           </cell>
         </row>
         <row r="28">
-          <cell r="D28"/>
+          <cell r="D28">
+            <v>0</v>
+          </cell>
           <cell r="G28">
             <v>75.586206896551772</v>
           </cell>
         </row>
         <row r="29">
-          <cell r="D29"/>
+          <cell r="D29">
+            <v>0</v>
+          </cell>
           <cell r="G29">
             <v>75.241379310344882</v>
           </cell>
         </row>
         <row r="30">
-          <cell r="D30"/>
+          <cell r="D30">
+            <v>0</v>
+          </cell>
           <cell r="G30">
             <v>74.896551724137993</v>
           </cell>
         </row>
         <row r="31">
-          <cell r="D31"/>
+          <cell r="D31">
+            <v>0</v>
+          </cell>
           <cell r="G31">
             <v>74.551724137931103</v>
           </cell>
         </row>
         <row r="32">
-          <cell r="D32"/>
+          <cell r="D32">
+            <v>0</v>
+          </cell>
           <cell r="G32">
             <v>74.206896551724213</v>
           </cell>
         </row>
         <row r="33">
-          <cell r="D33"/>
+          <cell r="D33">
+            <v>0</v>
+          </cell>
           <cell r="G33">
             <v>73.862068965517324</v>
           </cell>
         </row>
         <row r="34">
-          <cell r="D34"/>
+          <cell r="D34">
+            <v>0</v>
+          </cell>
           <cell r="G34">
             <v>73.517241379310434</v>
           </cell>
         </row>
         <row r="35">
-          <cell r="D35"/>
+          <cell r="D35">
+            <v>0</v>
+          </cell>
           <cell r="G35">
             <v>73.172413793103544</v>
           </cell>
         </row>
         <row r="36">
-          <cell r="D36"/>
+          <cell r="D36">
+            <v>0</v>
+          </cell>
           <cell r="G36">
             <v>72.827586206896655</v>
           </cell>
         </row>
         <row r="37">
-          <cell r="D37"/>
+          <cell r="D37">
+            <v>0</v>
+          </cell>
           <cell r="G37">
             <v>72.482758620689765</v>
           </cell>
         </row>
         <row r="38">
-          <cell r="D38"/>
+          <cell r="D38">
+            <v>0</v>
+          </cell>
           <cell r="G38">
             <v>72.137931034482875</v>
           </cell>
         </row>
         <row r="39">
-          <cell r="D39"/>
+          <cell r="D39">
+            <v>0</v>
+          </cell>
           <cell r="G39">
             <v>71.793103448275986</v>
           </cell>
         </row>
         <row r="40">
-          <cell r="D40"/>
+          <cell r="D40">
+            <v>0</v>
+          </cell>
           <cell r="G40">
             <v>71.448275862069096</v>
           </cell>
         </row>
         <row r="41">
-          <cell r="D41"/>
+          <cell r="D41">
+            <v>0</v>
+          </cell>
           <cell r="G41">
             <v>71.103448275862206</v>
           </cell>
         </row>
         <row r="42">
-          <cell r="D42"/>
+          <cell r="D42">
+            <v>0</v>
+          </cell>
           <cell r="G42">
             <v>70.758620689655316</v>
           </cell>
         </row>
         <row r="43">
-          <cell r="D43"/>
+          <cell r="D43">
+            <v>0</v>
+          </cell>
           <cell r="G43">
             <v>70.413793103448427</v>
           </cell>
         </row>
         <row r="44">
-          <cell r="D44"/>
+          <cell r="D44">
+            <v>0</v>
+          </cell>
           <cell r="G44">
             <v>70.068965517241537</v>
           </cell>
         </row>
         <row r="45">
-          <cell r="D45"/>
+          <cell r="D45">
+            <v>0</v>
+          </cell>
           <cell r="G45">
             <v>69.724137931034647</v>
           </cell>
         </row>
         <row r="46">
-          <cell r="D46"/>
+          <cell r="D46">
+            <v>0</v>
+          </cell>
           <cell r="G46">
             <v>69.379310344827758</v>
           </cell>
         </row>
         <row r="47">
-          <cell r="D47"/>
+          <cell r="D47">
+            <v>0</v>
+          </cell>
           <cell r="G47">
             <v>69.034482758620868</v>
           </cell>
         </row>
         <row r="48">
-          <cell r="D48"/>
+          <cell r="D48">
+            <v>0</v>
+          </cell>
           <cell r="G48">
             <v>68.689655172413978</v>
           </cell>
         </row>
         <row r="49">
-          <cell r="D49"/>
+          <cell r="D49">
+            <v>0</v>
+          </cell>
           <cell r="G49">
             <v>68.344827586207089</v>
           </cell>
         </row>
         <row r="50">
-          <cell r="D50"/>
+          <cell r="D50">
+            <v>0</v>
+          </cell>
         </row>
       </sheetData>
     </sheetDataSet>
@@ -3291,7 +3423,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3326,7 +3458,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3503,7 +3635,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6522,8 +6654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:X139"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7176,26 +7308,28 @@
         <f t="shared" si="5"/>
         <v>42700</v>
       </c>
-      <c r="D24" s="101"/>
+      <c r="D24" s="101">
+        <v>91.7</v>
+      </c>
       <c r="E24" s="95">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.20000000000000284</v>
       </c>
       <c r="F24" s="95">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-0.39999999999999147</v>
       </c>
       <c r="G24" s="102">
         <f t="shared" si="3"/>
         <v>91.538135593220332</v>
       </c>
-      <c r="H24" s="97" t="str">
+      <c r="H24" s="97">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I24" s="103" t="str">
+        <v>-162</v>
+      </c>
+      <c r="I24" s="103">
         <f t="shared" si="0"/>
-        <v/>
+        <v>31.360076604767283</v>
       </c>
       <c r="J24" s="42"/>
       <c r="K24" s="42"/>
@@ -7218,26 +7352,28 @@
         <f t="shared" si="5"/>
         <v>42701</v>
       </c>
-      <c r="D25" s="101"/>
+      <c r="D25" s="101">
+        <v>91.4</v>
+      </c>
       <c r="E25" s="95">
         <f>IF(ISBLANK(D25),,D25-D24)</f>
-        <v>0</v>
+        <v>-0.29999999999999716</v>
       </c>
       <c r="F25" s="95">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-0.69999999999998863</v>
       </c>
       <c r="G25" s="102">
         <f t="shared" si="3"/>
         <v>91.350847457627111</v>
       </c>
-      <c r="H25" s="97" t="str">
+      <c r="H25" s="97">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I25" s="103" t="str">
+        <v>-50</v>
+      </c>
+      <c r="I25" s="103">
         <f t="shared" si="0"/>
-        <v/>
+        <v>31.257480934304578</v>
       </c>
       <c r="J25" s="42"/>
       <c r="K25" s="42"/>
@@ -11123,10 +11259,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11278,7 +11414,9 @@
       <c r="F4" s="115" t="s">
         <v>202</v>
       </c>
-      <c r="G4" s="115"/>
+      <c r="G4" s="115" t="s">
+        <v>203</v>
+      </c>
       <c r="H4" s="115">
         <v>2</v>
       </c>
@@ -11292,6 +11430,80 @@
         <v>190</v>
       </c>
       <c r="L4" s="115">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="75">
+      <c r="A5" s="63">
+        <v>42700</v>
+      </c>
+      <c r="B5" s="119" t="s">
+        <v>204</v>
+      </c>
+      <c r="C5" s="115" t="s">
+        <v>204</v>
+      </c>
+      <c r="D5" s="115" t="s">
+        <v>207</v>
+      </c>
+      <c r="E5" s="115" t="s">
+        <v>208</v>
+      </c>
+      <c r="F5" s="115" t="s">
+        <v>204</v>
+      </c>
+      <c r="G5" s="115" t="s">
+        <v>209</v>
+      </c>
+      <c r="H5" s="115">
+        <v>0</v>
+      </c>
+      <c r="I5" s="115" t="s">
+        <v>190</v>
+      </c>
+      <c r="J5" s="115" t="s">
+        <v>210</v>
+      </c>
+      <c r="K5" s="115" t="s">
+        <v>190</v>
+      </c>
+      <c r="L5" s="115">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="60">
+      <c r="A6" s="63">
+        <v>42701</v>
+      </c>
+      <c r="B6" s="119" t="s">
+        <v>205</v>
+      </c>
+      <c r="C6" s="115" t="s">
+        <v>212</v>
+      </c>
+      <c r="D6" s="115" t="s">
+        <v>206</v>
+      </c>
+      <c r="E6" s="115" t="s">
+        <v>213</v>
+      </c>
+      <c r="F6" s="115" t="s">
+        <v>214</v>
+      </c>
+      <c r="G6" s="115"/>
+      <c r="H6" s="115">
+        <v>0</v>
+      </c>
+      <c r="I6" s="115" t="s">
+        <v>190</v>
+      </c>
+      <c r="J6" s="115" t="s">
+        <v>211</v>
+      </c>
+      <c r="K6" s="115" t="s">
+        <v>190</v>
+      </c>
+      <c r="L6" s="115">
         <v>2</v>
       </c>
     </row>

--- a/DailyTimeSheet.xlsx
+++ b/DailyTimeSheet.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Raja\DailyTimeSheet\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Time Management" sheetId="2" r:id="rId1"/>
@@ -21,7 +26,7 @@
   <externalReferences>
     <externalReference r:id="rId11"/>
   </externalReferences>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +41,7 @@
     <author>Narender Raj</author>
   </authors>
   <commentList>
-    <comment ref="D13" authorId="0">
+    <comment ref="D13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -60,7 +65,7 @@
     <author>Narender Raj</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0">
+    <comment ref="A2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -79,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="222">
   <si>
     <t>10-11</t>
   </si>
@@ -811,21 +816,47 @@
   <si>
     <t>Coffe</t>
   </si>
+  <si>
+    <t>1.mango milkshake
+2.venila ice cream</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Tea
+</t>
+  </si>
+  <si>
+    <t>1. 8 Almond
+2. 2 fig
+3. 3 Ellada</t>
+  </si>
+  <si>
+    <t>1 small banana</t>
+  </si>
+  <si>
+    <t>5h</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2almond, 1 dates, 1walnut, 6 dry grapes
+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="9">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm;@"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="[$-409]d\-mmm\-yy;@"/>
-    <numFmt numFmtId="168" formatCode="0.0"/>
-    <numFmt numFmtId="169" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="170" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="171" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="172" formatCode="d\ mmm\ yyyy"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm;@"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="168" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="169" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="170" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="171" formatCode="d\ mmm\ yyyy"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1462,7 +1493,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1527,19 +1558,19 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="12" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="12" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="44"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="11" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="12" fillId="11" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="44"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1548,41 +1579,41 @@
     <xf numFmtId="0" fontId="15" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="11" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="13" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="13" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="11" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="13" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="11" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="11" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="5" fillId="10" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="10" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="11" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="11" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="11" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="11" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="11" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="170" fontId="1" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="1" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="11" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="11" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="11" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="1" fillId="11" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="1" fillId="11" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1598,16 +1629,16 @@
     <xf numFmtId="0" fontId="5" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="10" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="10" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="5" fillId="10" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="10" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="5" fillId="10" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="5" fillId="10" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="5" fillId="10" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1622,65 +1653,65 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="11" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="0" fillId="11" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="13" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="13" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="11" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="11" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="11" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="11" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="11" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="13" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="13" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="11" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="11" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="0" fillId="11" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="13" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="13" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="11" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="11" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="11" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="11" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="11" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1696,7 +1727,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="11" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="11" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1715,16 +1746,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="11" fillId="12" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="11" fillId="12" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="44"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="12" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="11" fillId="12" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="44"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="11" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="44"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="12" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="11" fillId="12" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="44"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1852,9 +1883,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-IN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1909,6 +1940,23 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -2036,7 +2084,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-DD52-4D60-883B-0A8CFE6CDE5D}"/>
             </c:ext>
@@ -2165,7 +2213,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-DD52-4D60-883B-0A8CFE6CDE5D}"/>
             </c:ext>
@@ -2226,6 +2274,23 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -2311,6 +2376,23 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -3635,7 +3717,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6654,8 +6736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:X139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11259,10 +11341,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11490,7 +11572,9 @@
       <c r="F6" s="115" t="s">
         <v>214</v>
       </c>
-      <c r="G6" s="115"/>
+      <c r="G6" s="115" t="s">
+        <v>215</v>
+      </c>
       <c r="H6" s="115">
         <v>0</v>
       </c>
@@ -11501,9 +11585,43 @@
         <v>211</v>
       </c>
       <c r="K6" s="115" t="s">
+        <v>220</v>
+      </c>
+      <c r="L6" s="115">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="45">
+      <c r="A7" s="63">
+        <v>42702</v>
+      </c>
+      <c r="B7" s="119" t="s">
+        <v>216</v>
+      </c>
+      <c r="C7" s="115" t="s">
+        <v>217</v>
+      </c>
+      <c r="D7" s="115" t="s">
+        <v>218</v>
+      </c>
+      <c r="E7" s="115" t="s">
+        <v>221</v>
+      </c>
+      <c r="F7" s="115"/>
+      <c r="G7" s="115"/>
+      <c r="H7" s="115">
+        <v>0</v>
+      </c>
+      <c r="I7" s="115" t="s">
         <v>190</v>
       </c>
-      <c r="L6" s="115">
+      <c r="J7" s="115" t="s">
+        <v>219</v>
+      </c>
+      <c r="K7" s="115" t="s">
+        <v>220</v>
+      </c>
+      <c r="L7" s="115">
         <v>2</v>
       </c>
     </row>

--- a/DailyTimeSheet.xlsx
+++ b/DailyTimeSheet.xlsx
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="228">
   <si>
     <t>10-11</t>
   </si>
@@ -841,6 +841,31 @@
   <si>
     <t xml:space="preserve">1.2almond, 1 dates, 1walnut, 6 dry grapes
 </t>
+  </si>
+  <si>
+    <t>1.small boost,
+2.samosa,
+3.Chenna</t>
+  </si>
+  <si>
+    <t>1.3 dosa, 1 omlet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Cumin Tea,
+2)1 wheat bread 
+3)1 boild egg
+</t>
+  </si>
+  <si>
+    <t>1. 8 Almond
+2. 1 Tea
+3. pomagranate</t>
+  </si>
+  <si>
+    <t>6h 55min</t>
+  </si>
+  <si>
+    <t>2 Rotti and 2 piece Chicken</t>
   </si>
 </sst>
 </file>
@@ -2125,90 +2150,6 @@
                 <c:pt idx="0">
                   <c:v>78</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -3236,225 +3177,169 @@
           </cell>
         </row>
         <row r="23">
-          <cell r="D23">
-            <v>0</v>
-          </cell>
+          <cell r="D23"/>
           <cell r="G23">
             <v>77.310344827586221</v>
           </cell>
         </row>
         <row r="24">
-          <cell r="D24">
-            <v>0</v>
-          </cell>
+          <cell r="D24"/>
           <cell r="G24">
             <v>76.965517241379331</v>
           </cell>
         </row>
         <row r="25">
-          <cell r="D25">
-            <v>0</v>
-          </cell>
+          <cell r="D25"/>
           <cell r="G25">
             <v>76.620689655172441</v>
           </cell>
         </row>
         <row r="26">
-          <cell r="D26">
-            <v>0</v>
-          </cell>
+          <cell r="D26"/>
           <cell r="G26">
             <v>76.275862068965552</v>
           </cell>
         </row>
         <row r="27">
-          <cell r="D27">
-            <v>0</v>
-          </cell>
+          <cell r="D27"/>
           <cell r="G27">
             <v>75.931034482758662</v>
           </cell>
         </row>
         <row r="28">
-          <cell r="D28">
-            <v>0</v>
-          </cell>
+          <cell r="D28"/>
           <cell r="G28">
             <v>75.586206896551772</v>
           </cell>
         </row>
         <row r="29">
-          <cell r="D29">
-            <v>0</v>
-          </cell>
+          <cell r="D29"/>
           <cell r="G29">
             <v>75.241379310344882</v>
           </cell>
         </row>
         <row r="30">
-          <cell r="D30">
-            <v>0</v>
-          </cell>
+          <cell r="D30"/>
           <cell r="G30">
             <v>74.896551724137993</v>
           </cell>
         </row>
         <row r="31">
-          <cell r="D31">
-            <v>0</v>
-          </cell>
+          <cell r="D31"/>
           <cell r="G31">
             <v>74.551724137931103</v>
           </cell>
         </row>
         <row r="32">
-          <cell r="D32">
-            <v>0</v>
-          </cell>
+          <cell r="D32"/>
           <cell r="G32">
             <v>74.206896551724213</v>
           </cell>
         </row>
         <row r="33">
-          <cell r="D33">
-            <v>0</v>
-          </cell>
+          <cell r="D33"/>
           <cell r="G33">
             <v>73.862068965517324</v>
           </cell>
         </row>
         <row r="34">
-          <cell r="D34">
-            <v>0</v>
-          </cell>
+          <cell r="D34"/>
           <cell r="G34">
             <v>73.517241379310434</v>
           </cell>
         </row>
         <row r="35">
-          <cell r="D35">
-            <v>0</v>
-          </cell>
+          <cell r="D35"/>
           <cell r="G35">
             <v>73.172413793103544</v>
           </cell>
         </row>
         <row r="36">
-          <cell r="D36">
-            <v>0</v>
-          </cell>
+          <cell r="D36"/>
           <cell r="G36">
             <v>72.827586206896655</v>
           </cell>
         </row>
         <row r="37">
-          <cell r="D37">
-            <v>0</v>
-          </cell>
+          <cell r="D37"/>
           <cell r="G37">
             <v>72.482758620689765</v>
           </cell>
         </row>
         <row r="38">
-          <cell r="D38">
-            <v>0</v>
-          </cell>
+          <cell r="D38"/>
           <cell r="G38">
             <v>72.137931034482875</v>
           </cell>
         </row>
         <row r="39">
-          <cell r="D39">
-            <v>0</v>
-          </cell>
+          <cell r="D39"/>
           <cell r="G39">
             <v>71.793103448275986</v>
           </cell>
         </row>
         <row r="40">
-          <cell r="D40">
-            <v>0</v>
-          </cell>
+          <cell r="D40"/>
           <cell r="G40">
             <v>71.448275862069096</v>
           </cell>
         </row>
         <row r="41">
-          <cell r="D41">
-            <v>0</v>
-          </cell>
+          <cell r="D41"/>
           <cell r="G41">
             <v>71.103448275862206</v>
           </cell>
         </row>
         <row r="42">
-          <cell r="D42">
-            <v>0</v>
-          </cell>
+          <cell r="D42"/>
           <cell r="G42">
             <v>70.758620689655316</v>
           </cell>
         </row>
         <row r="43">
-          <cell r="D43">
-            <v>0</v>
-          </cell>
+          <cell r="D43"/>
           <cell r="G43">
             <v>70.413793103448427</v>
           </cell>
         </row>
         <row r="44">
-          <cell r="D44">
-            <v>0</v>
-          </cell>
+          <cell r="D44"/>
           <cell r="G44">
             <v>70.068965517241537</v>
           </cell>
         </row>
         <row r="45">
-          <cell r="D45">
-            <v>0</v>
-          </cell>
+          <cell r="D45"/>
           <cell r="G45">
             <v>69.724137931034647</v>
           </cell>
         </row>
         <row r="46">
-          <cell r="D46">
-            <v>0</v>
-          </cell>
+          <cell r="D46"/>
           <cell r="G46">
             <v>69.379310344827758</v>
           </cell>
         </row>
         <row r="47">
-          <cell r="D47">
-            <v>0</v>
-          </cell>
+          <cell r="D47"/>
           <cell r="G47">
             <v>69.034482758620868</v>
           </cell>
         </row>
         <row r="48">
-          <cell r="D48">
-            <v>0</v>
-          </cell>
+          <cell r="D48"/>
           <cell r="G48">
             <v>68.689655172413978</v>
           </cell>
         </row>
         <row r="49">
-          <cell r="D49">
-            <v>0</v>
-          </cell>
+          <cell r="D49"/>
           <cell r="G49">
             <v>68.344827586207089</v>
           </cell>
         </row>
         <row r="50">
-          <cell r="D50">
-            <v>0</v>
-          </cell>
+          <cell r="D50"/>
         </row>
       </sheetData>
     </sheetDataSet>
@@ -3505,7 +3390,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3540,7 +3425,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6737,7 +6622,7 @@
   <dimension ref="B1:X139"/>
   <sheetViews>
     <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7478,26 +7363,28 @@
         <f t="shared" si="5"/>
         <v>42702</v>
       </c>
-      <c r="D26" s="101"/>
+      <c r="D26" s="101">
+        <v>91.4</v>
+      </c>
       <c r="E26" s="95">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F26" s="95">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-0.69999999999998863</v>
       </c>
       <c r="G26" s="102">
         <f t="shared" si="3"/>
         <v>91.16355932203389</v>
       </c>
-      <c r="H26" s="97" t="str">
+      <c r="H26" s="97">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I26" s="103" t="str">
+        <v>-237</v>
+      </c>
+      <c r="I26" s="103">
         <f t="shared" si="0"/>
-        <v/>
+        <v>31.257480934304578</v>
       </c>
       <c r="J26" s="42"/>
       <c r="K26" s="42"/>
@@ -7520,26 +7407,28 @@
         <f t="shared" si="5"/>
         <v>42703</v>
       </c>
-      <c r="D27" s="101"/>
+      <c r="D27" s="101">
+        <v>90.8</v>
+      </c>
       <c r="E27" s="95">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-0.60000000000000853</v>
       </c>
       <c r="F27" s="95">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-1.2999999999999972</v>
       </c>
       <c r="G27" s="102">
         <f t="shared" si="3"/>
         <v>90.97627118644067</v>
       </c>
-      <c r="H27" s="97" t="str">
+      <c r="H27" s="97">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I27" s="103" t="str">
+        <v>176</v>
+      </c>
+      <c r="I27" s="103">
         <f t="shared" si="0"/>
-        <v/>
+        <v>31.052289593379161</v>
       </c>
       <c r="J27" s="42"/>
       <c r="K27" s="42"/>
@@ -11341,10 +11230,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11607,8 +11496,12 @@
       <c r="E7" s="115" t="s">
         <v>221</v>
       </c>
-      <c r="F7" s="115"/>
-      <c r="G7" s="115"/>
+      <c r="F7" s="115" t="s">
+        <v>222</v>
+      </c>
+      <c r="G7" s="115" t="s">
+        <v>223</v>
+      </c>
       <c r="H7" s="115">
         <v>0</v>
       </c>
@@ -11623,6 +11516,42 @@
       </c>
       <c r="L7" s="115">
         <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="60">
+      <c r="A8" s="63">
+        <v>42703</v>
+      </c>
+      <c r="B8" s="119" t="s">
+        <v>224</v>
+      </c>
+      <c r="C8" s="115" t="s">
+        <v>225</v>
+      </c>
+      <c r="D8" s="115" t="s">
+        <v>221</v>
+      </c>
+      <c r="E8" s="115" t="s">
+        <v>227</v>
+      </c>
+      <c r="F8" s="115" t="s">
+        <v>221</v>
+      </c>
+      <c r="G8" s="115"/>
+      <c r="H8" s="115">
+        <v>0</v>
+      </c>
+      <c r="I8" s="115" t="s">
+        <v>190</v>
+      </c>
+      <c r="J8" s="115" t="s">
+        <v>226</v>
+      </c>
+      <c r="K8" s="115" t="s">
+        <v>220</v>
+      </c>
+      <c r="L8" s="115">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/DailyTimeSheet.xlsx
+++ b/DailyTimeSheet.xlsx
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="234">
   <si>
     <t>10-11</t>
   </si>
@@ -865,7 +865,36 @@
     <t>6h 55min</t>
   </si>
   <si>
-    <t>2 Rotti and 2 piece Chicken</t>
+    <t>1.shavarma,
+2.1 piece grill chicken
+3.Pulpy grape
+4.frech fries
+5.1 wheat breat with peanut butter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Cumin Tea,
+</t>
+  </si>
+  <si>
+    <t>1)4 Almond
+2)1 fig 
+3)1 boild egg
+4)50 grms pomagranate+vegsalad
+5)butter milk 1 glass
+6)small piece of cheese</t>
+  </si>
+  <si>
+    <t>7h 1min</t>
+  </si>
+  <si>
+    <t>1.veg sald, cheese, 1 egg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4almond, 4dates, 2walnut, some dry grapes
+</t>
+  </si>
+  <si>
+    <t>2 Rotti and 2 piece Chicken , rice</t>
   </si>
 </sst>
 </file>
@@ -6622,7 +6651,7 @@
   <dimension ref="B1:X139"/>
   <sheetViews>
     <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7451,26 +7480,28 @@
         <f t="shared" si="5"/>
         <v>42704</v>
       </c>
-      <c r="D28" s="101"/>
+      <c r="D28" s="101">
+        <v>91.5</v>
+      </c>
       <c r="E28" s="95">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.70000000000000284</v>
       </c>
       <c r="F28" s="95">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-0.59999999999999432</v>
       </c>
       <c r="G28" s="102">
         <f t="shared" si="3"/>
         <v>90.788983050847449</v>
       </c>
-      <c r="H28" s="97" t="str">
+      <c r="H28" s="97">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I28" s="103" t="str">
+        <v>-712</v>
+      </c>
+      <c r="I28" s="103">
         <f t="shared" si="0"/>
-        <v/>
+        <v>31.291679491125478</v>
       </c>
       <c r="J28" s="42"/>
       <c r="K28" s="42"/>
@@ -11230,10 +11261,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11518,7 +11549,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="60">
+    <row r="8" spans="1:12" ht="105">
       <c r="A8" s="63">
         <v>42703</v>
       </c>
@@ -11532,12 +11563,14 @@
         <v>221</v>
       </c>
       <c r="E8" s="115" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="F8" s="115" t="s">
         <v>221</v>
       </c>
-      <c r="G8" s="115"/>
+      <c r="G8" s="115" t="s">
+        <v>227</v>
+      </c>
       <c r="H8" s="115">
         <v>0</v>
       </c>
@@ -11548,9 +11581,45 @@
         <v>226</v>
       </c>
       <c r="K8" s="115" t="s">
-        <v>220</v>
+        <v>190</v>
       </c>
       <c r="L8" s="115">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="105">
+      <c r="A9" s="63">
+        <v>42704</v>
+      </c>
+      <c r="B9" s="119" t="s">
+        <v>228</v>
+      </c>
+      <c r="C9" s="115" t="s">
+        <v>229</v>
+      </c>
+      <c r="D9" s="115" t="s">
+        <v>221</v>
+      </c>
+      <c r="E9" s="115" t="s">
+        <v>231</v>
+      </c>
+      <c r="F9" s="115" t="s">
+        <v>232</v>
+      </c>
+      <c r="G9" s="115"/>
+      <c r="H9" s="115">
+        <v>0</v>
+      </c>
+      <c r="I9" s="115" t="s">
+        <v>190</v>
+      </c>
+      <c r="J9" s="115" t="s">
+        <v>230</v>
+      </c>
+      <c r="K9" s="115" t="s">
+        <v>190</v>
+      </c>
+      <c r="L9" s="115">
         <v>3</v>
       </c>
     </row>

--- a/DailyTimeSheet.xlsx
+++ b/DailyTimeSheet.xlsx
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="248">
   <si>
     <t>10-11</t>
   </si>
@@ -890,11 +890,70 @@
     <t>1.veg sald, cheese, 1 egg</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4almond, 4dates, 2walnut, some dry grapes
+    <t>2 Rotti and 2 piece Chicken , rice</t>
+  </si>
+  <si>
+    <t>1.4almond, 4dates, 2walnut, some dry grapes
+3.1 medium boost
+4.2 chicken roll</t>
+  </si>
+  <si>
+    <t>1.wheat rava uppuma, curd and pickle
+2.1 omlet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Cumin Tea,
+2)1 wheat bread with peanut butter
+3) 1 egg
 </t>
   </si>
   <si>
-    <t>2 Rotti and 2 piece Chicken , rice</t>
+    <t>1)4 Almond
+2)1 fig 
+3)1 full boild egg, 1 egg white
+4)50 grms pomagranate+vegsalad
+5)2 wheat bread with peanut butter</t>
+  </si>
+  <si>
+    <t>1.veg sald, 1 egg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7h </t>
+  </si>
+  <si>
+    <t>1.medium boost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4almond, 4dates, 2fig, some dry grapes
+2.1 coffee
+3.4 bonda
+4.1 tea
+</t>
+  </si>
+  <si>
+    <t>1. 3 wheat dosa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Cumin Tea,
+</t>
+  </si>
+  <si>
+    <t>1)2 scrambled Egg
+2)quarter apple</t>
+  </si>
+  <si>
+    <t>7h 2m</t>
+  </si>
+  <si>
+    <t>1)3/4quarter apple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4almond, 4dates, 1 orange
+4.1 grean teatea
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 1 corn sandwidch , 1/2 chicken dosa,1/2 chicken roll, 1/2 chicken BBQ sandwidch, 1 omlet, 1 boost, 1 pomagranate </t>
   </si>
 </sst>
 </file>
@@ -6651,7 +6710,7 @@
   <dimension ref="B1:X139"/>
   <sheetViews>
     <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7524,26 +7583,28 @@
         <f t="shared" si="5"/>
         <v>42705</v>
       </c>
-      <c r="D29" s="101"/>
+      <c r="D29" s="101">
+        <v>91.8</v>
+      </c>
       <c r="E29" s="95">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.29999999999999716</v>
       </c>
       <c r="F29" s="95">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-0.29999999999999716</v>
       </c>
       <c r="G29" s="102">
         <f t="shared" si="3"/>
         <v>90.601694915254228</v>
       </c>
-      <c r="H29" s="97" t="str">
+      <c r="H29" s="97">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I29" s="103" t="str">
+        <v>-1199</v>
+      </c>
+      <c r="I29" s="103">
         <f t="shared" si="0"/>
-        <v/>
+        <v>31.394275161588183</v>
       </c>
       <c r="J29" s="42"/>
       <c r="K29" s="42"/>
@@ -7566,26 +7627,28 @@
         <f t="shared" si="5"/>
         <v>42706</v>
       </c>
-      <c r="D30" s="101"/>
+      <c r="D30" s="101">
+        <v>91.2</v>
+      </c>
       <c r="E30" s="95">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-0.59999999999999432</v>
       </c>
       <c r="F30" s="95">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-0.89999999999999147</v>
       </c>
       <c r="G30" s="102">
         <f t="shared" si="3"/>
         <v>90.414406779661007</v>
       </c>
-      <c r="H30" s="97" t="str">
+      <c r="H30" s="97">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I30" s="103" t="str">
+        <v>-786</v>
+      </c>
+      <c r="I30" s="103">
         <f t="shared" si="0"/>
-        <v/>
+        <v>31.189083820662773</v>
       </c>
       <c r="J30" s="42"/>
       <c r="K30" s="42"/>
@@ -11261,10 +11324,12 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11563,7 +11628,7 @@
         <v>221</v>
       </c>
       <c r="E8" s="115" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F8" s="115" t="s">
         <v>221</v>
@@ -11604,9 +11669,11 @@
         <v>231</v>
       </c>
       <c r="F9" s="115" t="s">
-        <v>232</v>
-      </c>
-      <c r="G9" s="115"/>
+        <v>233</v>
+      </c>
+      <c r="G9" s="115" t="s">
+        <v>234</v>
+      </c>
       <c r="H9" s="115">
         <v>0</v>
       </c>
@@ -11620,7 +11687,81 @@
         <v>190</v>
       </c>
       <c r="L9" s="115">
-        <v>3</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="120">
+      <c r="A10" s="63">
+        <v>42705</v>
+      </c>
+      <c r="B10" s="119" t="s">
+        <v>235</v>
+      </c>
+      <c r="C10" s="115" t="s">
+        <v>236</v>
+      </c>
+      <c r="D10" s="115" t="s">
+        <v>239</v>
+      </c>
+      <c r="E10" s="115" t="s">
+        <v>237</v>
+      </c>
+      <c r="F10" s="115" t="s">
+        <v>240</v>
+      </c>
+      <c r="G10" s="115" t="s">
+        <v>241</v>
+      </c>
+      <c r="H10" s="115">
+        <v>0</v>
+      </c>
+      <c r="I10" s="115" t="s">
+        <v>190</v>
+      </c>
+      <c r="J10" s="115" t="s">
+        <v>238</v>
+      </c>
+      <c r="K10" s="115" t="s">
+        <v>190</v>
+      </c>
+      <c r="L10" s="115">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="90">
+      <c r="A11" s="63">
+        <v>42706</v>
+      </c>
+      <c r="B11" s="119" t="s">
+        <v>242</v>
+      </c>
+      <c r="C11" s="115" t="s">
+        <v>243</v>
+      </c>
+      <c r="D11" s="115" t="s">
+        <v>245</v>
+      </c>
+      <c r="E11" s="115" t="s">
+        <v>246</v>
+      </c>
+      <c r="F11" s="115" t="s">
+        <v>247</v>
+      </c>
+      <c r="G11" s="115"/>
+      <c r="H11" s="115">
+        <v>1</v>
+      </c>
+      <c r="I11" s="115" t="s">
+        <v>190</v>
+      </c>
+      <c r="J11" s="115" t="s">
+        <v>244</v>
+      </c>
+      <c r="K11" s="115" t="s">
+        <v>190</v>
+      </c>
+      <c r="L11" s="115">
+        <v>2.5</v>
       </c>
     </row>
   </sheetData>

--- a/DailyTimeSheet.xlsx
+++ b/DailyTimeSheet.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Raja\DailyTimeSheet\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" firstSheet="3" activeTab="8"/>
   </bookViews>
@@ -26,7 +21,7 @@
   <externalReferences>
     <externalReference r:id="rId11"/>
   </externalReferences>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +36,7 @@
     <author>Narender Raj</author>
   </authors>
   <commentList>
-    <comment ref="D13" authorId="0" shapeId="0">
+    <comment ref="D13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -65,7 +60,7 @@
     <author>Narender Raj</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0">
+    <comment ref="A2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -84,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="254">
   <si>
     <t>10-11</t>
   </si>
@@ -955,21 +950,41 @@
   <si>
     <t xml:space="preserve">1. 1 corn sandwidch , 1/2 chicken dosa,1/2 chicken roll, 1/2 chicken BBQ sandwidch, 1 omlet, 1 boost, 1 pomagranate </t>
   </si>
+  <si>
+    <t>8h</t>
+  </si>
+  <si>
+    <t>1)1Egg
+2)2 bread with Peanut butter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1)Briyani , 5 piece chicken tikka, 1 coffe
+</t>
+  </si>
+  <si>
+    <t>1 bread, small bowl of mixer , 2 banana 10 appalams</t>
+  </si>
+  <si>
+    <t>1. 4 dosa , 1 egg</t>
+  </si>
+  <si>
+    <t>1. 1 egg , rasam sadam and fryams</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="9">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm;@"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="[$-409]d\-mmm\-yy;@"/>
-    <numFmt numFmtId="167" formatCode="0.0"/>
-    <numFmt numFmtId="168" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="169" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="170" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="171" formatCode="d\ mmm\ yyyy"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm;@"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="169" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="170" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="171" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="172" formatCode="d\ mmm\ yyyy"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1606,7 +1621,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1671,19 +1686,19 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="0" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="12" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="12" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="44"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="11" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="12" fillId="11" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="44"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1692,41 +1707,41 @@
     <xf numFmtId="0" fontId="15" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="11" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="13" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="13" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="11" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="13" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="11" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="11" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="10" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="5" fillId="10" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="11" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="11" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="11" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="11" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="11" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="1" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="11" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="11" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="11" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="1" fillId="11" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="1" fillId="11" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1742,16 +1757,16 @@
     <xf numFmtId="0" fontId="5" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="10" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="10" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="5" fillId="10" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="10" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="10" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="10" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="5" fillId="10" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1766,65 +1781,65 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="11" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="0" fillId="11" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="13" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="13" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="11" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="11" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="11" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="11" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="11" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="13" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="13" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="11" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="11" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="0" fillId="11" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="13" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="13" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="11" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="11" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="11" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="11" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="11" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1840,7 +1855,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="11" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="11" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1859,16 +1874,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="11" fillId="12" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="12" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="44"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="12" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="12" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="44"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="44"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="12" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="12" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="44"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1996,9 +2011,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-IN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2053,23 +2068,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -2197,7 +2195,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-DD52-4D60-883B-0A8CFE6CDE5D}"/>
             </c:ext>
@@ -2238,11 +2236,95 @@
                 <c:pt idx="0">
                   <c:v>78</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-DD52-4D60-883B-0A8CFE6CDE5D}"/>
             </c:ext>
@@ -2256,11 +2338,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="94923776"/>
-        <c:axId val="94934144"/>
+        <c:axId val="97876608"/>
+        <c:axId val="97882880"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="94923776"/>
+        <c:axId val="97876608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="30"/>
@@ -2303,23 +2385,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -2355,13 +2420,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94934144"/>
+        <c:crossAx val="97882880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:minorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="94934144"/>
+        <c:axId val="97882880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="120"/>
@@ -2405,23 +2470,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -2457,7 +2505,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94923776"/>
+        <c:crossAx val="97876608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2530,562 +2578,6 @@
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3265,169 +2757,225 @@
           </cell>
         </row>
         <row r="23">
-          <cell r="D23"/>
+          <cell r="D23">
+            <v>0</v>
+          </cell>
           <cell r="G23">
             <v>77.310344827586221</v>
           </cell>
         </row>
         <row r="24">
-          <cell r="D24"/>
+          <cell r="D24">
+            <v>0</v>
+          </cell>
           <cell r="G24">
             <v>76.965517241379331</v>
           </cell>
         </row>
         <row r="25">
-          <cell r="D25"/>
+          <cell r="D25">
+            <v>0</v>
+          </cell>
           <cell r="G25">
             <v>76.620689655172441</v>
           </cell>
         </row>
         <row r="26">
-          <cell r="D26"/>
+          <cell r="D26">
+            <v>0</v>
+          </cell>
           <cell r="G26">
             <v>76.275862068965552</v>
           </cell>
         </row>
         <row r="27">
-          <cell r="D27"/>
+          <cell r="D27">
+            <v>0</v>
+          </cell>
           <cell r="G27">
             <v>75.931034482758662</v>
           </cell>
         </row>
         <row r="28">
-          <cell r="D28"/>
+          <cell r="D28">
+            <v>0</v>
+          </cell>
           <cell r="G28">
             <v>75.586206896551772</v>
           </cell>
         </row>
         <row r="29">
-          <cell r="D29"/>
+          <cell r="D29">
+            <v>0</v>
+          </cell>
           <cell r="G29">
             <v>75.241379310344882</v>
           </cell>
         </row>
         <row r="30">
-          <cell r="D30"/>
+          <cell r="D30">
+            <v>0</v>
+          </cell>
           <cell r="G30">
             <v>74.896551724137993</v>
           </cell>
         </row>
         <row r="31">
-          <cell r="D31"/>
+          <cell r="D31">
+            <v>0</v>
+          </cell>
           <cell r="G31">
             <v>74.551724137931103</v>
           </cell>
         </row>
         <row r="32">
-          <cell r="D32"/>
+          <cell r="D32">
+            <v>0</v>
+          </cell>
           <cell r="G32">
             <v>74.206896551724213</v>
           </cell>
         </row>
         <row r="33">
-          <cell r="D33"/>
+          <cell r="D33">
+            <v>0</v>
+          </cell>
           <cell r="G33">
             <v>73.862068965517324</v>
           </cell>
         </row>
         <row r="34">
-          <cell r="D34"/>
+          <cell r="D34">
+            <v>0</v>
+          </cell>
           <cell r="G34">
             <v>73.517241379310434</v>
           </cell>
         </row>
         <row r="35">
-          <cell r="D35"/>
+          <cell r="D35">
+            <v>0</v>
+          </cell>
           <cell r="G35">
             <v>73.172413793103544</v>
           </cell>
         </row>
         <row r="36">
-          <cell r="D36"/>
+          <cell r="D36">
+            <v>0</v>
+          </cell>
           <cell r="G36">
             <v>72.827586206896655</v>
           </cell>
         </row>
         <row r="37">
-          <cell r="D37"/>
+          <cell r="D37">
+            <v>0</v>
+          </cell>
           <cell r="G37">
             <v>72.482758620689765</v>
           </cell>
         </row>
         <row r="38">
-          <cell r="D38"/>
+          <cell r="D38">
+            <v>0</v>
+          </cell>
           <cell r="G38">
             <v>72.137931034482875</v>
           </cell>
         </row>
         <row r="39">
-          <cell r="D39"/>
+          <cell r="D39">
+            <v>0</v>
+          </cell>
           <cell r="G39">
             <v>71.793103448275986</v>
           </cell>
         </row>
         <row r="40">
-          <cell r="D40"/>
+          <cell r="D40">
+            <v>0</v>
+          </cell>
           <cell r="G40">
             <v>71.448275862069096</v>
           </cell>
         </row>
         <row r="41">
-          <cell r="D41"/>
+          <cell r="D41">
+            <v>0</v>
+          </cell>
           <cell r="G41">
             <v>71.103448275862206</v>
           </cell>
         </row>
         <row r="42">
-          <cell r="D42"/>
+          <cell r="D42">
+            <v>0</v>
+          </cell>
           <cell r="G42">
             <v>70.758620689655316</v>
           </cell>
         </row>
         <row r="43">
-          <cell r="D43"/>
+          <cell r="D43">
+            <v>0</v>
+          </cell>
           <cell r="G43">
             <v>70.413793103448427</v>
           </cell>
         </row>
         <row r="44">
-          <cell r="D44"/>
+          <cell r="D44">
+            <v>0</v>
+          </cell>
           <cell r="G44">
             <v>70.068965517241537</v>
           </cell>
         </row>
         <row r="45">
-          <cell r="D45"/>
+          <cell r="D45">
+            <v>0</v>
+          </cell>
           <cell r="G45">
             <v>69.724137931034647</v>
           </cell>
         </row>
         <row r="46">
-          <cell r="D46"/>
+          <cell r="D46">
+            <v>0</v>
+          </cell>
           <cell r="G46">
             <v>69.379310344827758</v>
           </cell>
         </row>
         <row r="47">
-          <cell r="D47"/>
+          <cell r="D47">
+            <v>0</v>
+          </cell>
           <cell r="G47">
             <v>69.034482758620868</v>
           </cell>
         </row>
         <row r="48">
-          <cell r="D48"/>
+          <cell r="D48">
+            <v>0</v>
+          </cell>
           <cell r="G48">
             <v>68.689655172413978</v>
           </cell>
         </row>
         <row r="49">
-          <cell r="D49"/>
+          <cell r="D49">
+            <v>0</v>
+          </cell>
           <cell r="G49">
             <v>68.344827586207089</v>
           </cell>
         </row>
         <row r="50">
-          <cell r="D50"/>
+          <cell r="D50">
+            <v>0</v>
+          </cell>
         </row>
       </sheetData>
     </sheetDataSet>
@@ -3478,7 +3026,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3513,7 +3061,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3690,7 +3238,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6710,7 +6258,7 @@
   <dimension ref="B1:X139"/>
   <sheetViews>
     <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7671,26 +7219,28 @@
         <f t="shared" si="5"/>
         <v>42707</v>
       </c>
-      <c r="D31" s="101"/>
+      <c r="D31" s="101">
+        <v>90.7</v>
+      </c>
       <c r="E31" s="95">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="F31" s="95">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-1.3999999999999915</v>
       </c>
       <c r="G31" s="102">
         <f t="shared" si="3"/>
         <v>90.227118644067787</v>
       </c>
-      <c r="H31" s="97" t="str">
+      <c r="H31" s="97">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I31" s="103" t="str">
+        <v>-473</v>
+      </c>
+      <c r="I31" s="103">
         <f t="shared" si="0"/>
-        <v/>
+        <v>31.01809103655826</v>
       </c>
       <c r="J31" s="42"/>
       <c r="K31" s="42"/>
@@ -11324,12 +10874,12 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
+      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11747,7 +11297,9 @@
       <c r="F11" s="115" t="s">
         <v>247</v>
       </c>
-      <c r="G11" s="115"/>
+      <c r="G11" s="115" t="s">
+        <v>252</v>
+      </c>
       <c r="H11" s="115">
         <v>1</v>
       </c>
@@ -11762,6 +11314,40 @@
       </c>
       <c r="L11" s="115">
         <v>2.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="45">
+      <c r="A12" s="63">
+        <v>42707</v>
+      </c>
+      <c r="B12" s="119"/>
+      <c r="C12" s="115" t="s">
+        <v>249</v>
+      </c>
+      <c r="D12" s="115"/>
+      <c r="E12" s="115" t="s">
+        <v>250</v>
+      </c>
+      <c r="F12" s="115" t="s">
+        <v>251</v>
+      </c>
+      <c r="G12" s="115" t="s">
+        <v>253</v>
+      </c>
+      <c r="H12" s="115">
+        <v>0</v>
+      </c>
+      <c r="I12" s="115" t="s">
+        <v>190</v>
+      </c>
+      <c r="J12" s="115" t="s">
+        <v>248</v>
+      </c>
+      <c r="K12" s="115" t="s">
+        <v>190</v>
+      </c>
+      <c r="L12" s="115">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/DailyTimeSheet.xlsx
+++ b/DailyTimeSheet.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Raja\DailyTimeSheet\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" firstSheet="3" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Time Management" sheetId="2" r:id="rId1"/>
@@ -21,7 +26,7 @@
   <externalReferences>
     <externalReference r:id="rId11"/>
   </externalReferences>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +41,7 @@
     <author>Narender Raj</author>
   </authors>
   <commentList>
-    <comment ref="D13" authorId="0">
+    <comment ref="D13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -60,7 +65,7 @@
     <author>Narender Raj</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0">
+    <comment ref="A2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -79,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="262">
   <si>
     <t>10-11</t>
   </si>
@@ -970,21 +975,51 @@
   <si>
     <t>1. 1 egg , rasam sadam and fryams</t>
   </si>
+  <si>
+    <t>1. 3 wheat dosa with chicken</t>
+  </si>
+  <si>
+    <t>6 banana 1 cheesecube, mixer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1)Briyani , 4 piece chicken lolipop, 1/2 fish, 1/2 egg podimass
+</t>
+  </si>
+  <si>
+    <t>7h</t>
+  </si>
+  <si>
+    <t>1)2 idly
+2)2 vada
+3)Tea</t>
+  </si>
+  <si>
+    <t>1) 2 slice wheat bread with peanut butter
+2)1 scrambled egg
+3) pomgranate</t>
+  </si>
+  <si>
+    <t>1) veg salad</t>
+  </si>
+  <si>
+    <t>1) coffee
+2)4 almond,4 walnut,4 dates and dry grapes</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="9">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm;@"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="[$-409]d\-mmm\-yy;@"/>
-    <numFmt numFmtId="168" formatCode="0.0"/>
-    <numFmt numFmtId="169" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="170" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="171" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="172" formatCode="d\ mmm\ yyyy"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm;@"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="168" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="169" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="170" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="171" formatCode="d\ mmm\ yyyy"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1621,7 +1656,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1686,19 +1721,19 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="12" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="12" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="44"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="11" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="12" fillId="11" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="44"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1707,41 +1742,41 @@
     <xf numFmtId="0" fontId="15" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="11" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="13" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="13" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="11" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="13" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="11" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="11" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="5" fillId="10" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="10" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="11" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="11" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="11" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="11" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="11" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="170" fontId="1" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="1" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="11" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="11" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="11" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="1" fillId="11" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="1" fillId="11" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1757,16 +1792,16 @@
     <xf numFmtId="0" fontId="5" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="10" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="10" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="5" fillId="10" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="10" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="5" fillId="10" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="5" fillId="10" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="5" fillId="10" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1781,65 +1816,65 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="11" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="0" fillId="11" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="13" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="13" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="11" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="11" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="11" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="11" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="11" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="13" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="13" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="11" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="11" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="0" fillId="11" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="13" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="13" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="11" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="11" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="11" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="11" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="11" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1855,7 +1890,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="11" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="11" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1874,16 +1909,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="11" fillId="12" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="11" fillId="12" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="44"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="12" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="11" fillId="12" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="44"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="11" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="44"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="12" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="11" fillId="12" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="44"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2011,9 +2046,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-IN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2076,18 +2111,10 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="36"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>'[1]Weight Tracker'!$G$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Target</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Target</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -2101,119 +2128,744 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Weight Tracker'!$B$22:$B$139</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="118"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>118</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[1]Weight Tracker'!$G$22:$G$49</c:f>
+              <c:f>'Weight Tracker'!$G$22:$G$139</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:formatCode>_-* #,##0.00_-;\-* #,##0.00_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="118"/>
                 <c:pt idx="0">
-                  <c:v>77.65517241379311</c:v>
+                  <c:v>91.912711864406774</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>77.310344827586221</c:v>
+                  <c:v>91.725423728813553</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>76.965517241379331</c:v>
+                  <c:v>91.538135593220332</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>76.620689655172441</c:v>
+                  <c:v>91.350847457627111</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>76.275862068965552</c:v>
+                  <c:v>91.16355932203389</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>75.931034482758662</c:v>
+                  <c:v>90.97627118644067</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>75.586206896551772</c:v>
+                  <c:v>90.788983050847449</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>75.241379310344882</c:v>
+                  <c:v>90.601694915254228</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>74.896551724137993</c:v>
+                  <c:v>90.414406779661007</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>74.551724137931103</c:v>
+                  <c:v>90.227118644067787</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>74.206896551724213</c:v>
+                  <c:v>90.039830508474566</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>73.862068965517324</c:v>
+                  <c:v>89.852542372881345</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>73.517241379310434</c:v>
+                  <c:v>89.665254237288124</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>73.172413793103544</c:v>
+                  <c:v>89.477966101694904</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>72.827586206896655</c:v>
+                  <c:v>89.290677966101683</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>72.482758620689765</c:v>
+                  <c:v>89.103389830508462</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>72.137931034482875</c:v>
+                  <c:v>88.916101694915241</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>71.793103448275986</c:v>
+                  <c:v>88.72881355932202</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>71.448275862069096</c:v>
+                  <c:v>88.5415254237288</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>71.103448275862206</c:v>
+                  <c:v>88.354237288135579</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>70.758620689655316</c:v>
+                  <c:v>88.166949152542358</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>70.413793103448427</c:v>
+                  <c:v>87.979661016949137</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>70.068965517241537</c:v>
+                  <c:v>87.792372881355917</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>69.724137931034647</c:v>
+                  <c:v>87.605084745762696</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>69.379310344827758</c:v>
+                  <c:v>87.417796610169475</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>69.034482758620868</c:v>
+                  <c:v>87.230508474576254</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>68.689655172413978</c:v>
+                  <c:v>87.043220338983033</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>68.344827586207089</c:v>
+                  <c:v>86.855932203389813</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>86.668644067796592</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>86.481355932203371</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>86.29406779661015</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>86.10677966101693</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>85.919491525423709</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>85.732203389830488</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>85.544915254237267</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>85.357627118644047</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>85.170338983050826</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>84.983050847457605</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>84.795762711864384</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>84.608474576271163</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>84.421186440677943</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>84.233898305084722</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>84.046610169491501</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>83.85932203389828</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>83.67203389830506</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>83.484745762711839</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>83.297457627118618</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>83.110169491525397</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>82.922881355932176</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>82.735593220338956</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>82.548305084745735</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>82.361016949152514</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>82.173728813559293</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>81.986440677966073</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>81.799152542372852</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>81.611864406779631</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>81.42457627118641</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>81.23728813559319</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>81.049999999999969</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>80.862711864406748</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>80.675423728813527</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>80.488135593220306</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>80.300847457627086</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>80.113559322033865</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>79.926271186440644</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>79.738983050847423</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>79.551694915254203</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>79.364406779660982</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>79.177118644067761</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>78.98983050847454</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>78.802542372881319</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>78.615254237288099</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>78.427966101694878</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>78.240677966101657</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>78.053389830508436</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>77.866101694915216</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>77.678813559321995</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77.491525423728774</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>77.304237288135553</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>77.116949152542333</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>76.929661016949112</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>76.742372881355891</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>76.55508474576267</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>76.367796610169449</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>76.180508474576229</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>75.993220338983008</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>75.805932203389787</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>75.618644067796566</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>75.431355932203346</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>75.244067796610125</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>75.056779661016904</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>74.869491525423683</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>74.682203389830462</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>74.494915254237242</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>74.307627118644021</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>74.1203389830508</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>73.933050847457579</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>73.745762711864359</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>73.558474576271138</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>73.371186440677917</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>73.183898305084696</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>72.996610169491476</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>72.809322033898255</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>72.622033898305034</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>72.434745762711813</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>72.247457627118592</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>72.060169491525372</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>71.872881355932151</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>71.68559322033893</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>71.498305084745709</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>71.311016949152489</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>71.123728813559268</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>70.936440677966047</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>70.749152542372826</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>70.561864406779605</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>70.374576271186385</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>70.187288135593164</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>69.999999999999943</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-DD52-4D60-883B-0A8CFE6CDE5D}"/>
+              <c16:uniqueId val="{00000023-59D4-4694-857A-0C754E58BF62}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="0"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>'[1]Weight Tracker'!$D$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Weight (kg)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Actual</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -2227,106 +2879,418 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Weight Tracker'!$B$22:$B$139</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="118"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>118</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[1]Weight Tracker'!$D$22:$D$50</c:f>
+              <c:f>'Weight Tracker'!$D$22:$D$139</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:formatCode>_-* #,##0.00_-;\-* #,##0.00_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="118"/>
                 <c:pt idx="0">
-                  <c:v>78</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>91.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>91.7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>91.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>91.4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>90.8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>91.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>91.8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>91.2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>90.7</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>90.7</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-DD52-4D60-883B-0A8CFE6CDE5D}"/>
+              <c16:uniqueId val="{00000075-59D4-4694-857A-0C754E58BF62}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2471,7 +3435,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3238,7 +4202,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6257,8 +7221,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:X139"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7263,26 +8227,28 @@
         <f t="shared" si="5"/>
         <v>42708</v>
       </c>
-      <c r="D32" s="101"/>
+      <c r="D32" s="101">
+        <v>90.7</v>
+      </c>
       <c r="E32" s="95">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F32" s="95">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-1.3999999999999915</v>
       </c>
       <c r="G32" s="102">
         <f t="shared" si="3"/>
         <v>90.039830508474566</v>
       </c>
-      <c r="H32" s="97" t="str">
+      <c r="H32" s="97">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I32" s="103" t="str">
+        <v>-661</v>
+      </c>
+      <c r="I32" s="103">
         <f t="shared" si="0"/>
-        <v/>
+        <v>31.01809103655826</v>
       </c>
       <c r="J32" s="42"/>
       <c r="K32" s="42"/>
@@ -7305,26 +8271,28 @@
         <f t="shared" si="5"/>
         <v>42709</v>
       </c>
-      <c r="D33" s="101"/>
+      <c r="D33" s="101">
+        <v>91</v>
+      </c>
       <c r="E33" s="95">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.29999999999999716</v>
       </c>
       <c r="F33" s="95">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-1.0999999999999943</v>
       </c>
       <c r="G33" s="102">
         <f t="shared" si="3"/>
         <v>89.852542372881345</v>
       </c>
-      <c r="H33" s="97" t="str">
+      <c r="H33" s="97">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I33" s="103" t="str">
+        <v>-1148</v>
+      </c>
+      <c r="I33" s="103">
         <f t="shared" si="0"/>
-        <v/>
+        <v>31.120686707020965</v>
       </c>
       <c r="J33" s="42"/>
       <c r="K33" s="42"/>
@@ -10874,12 +11842,12 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11350,6 +12318,72 @@
         <v>2</v>
       </c>
     </row>
+    <row r="13" spans="1:12" ht="60">
+      <c r="A13" s="63">
+        <v>42708</v>
+      </c>
+      <c r="B13" s="119"/>
+      <c r="C13" s="115" t="s">
+        <v>258</v>
+      </c>
+      <c r="D13" s="115"/>
+      <c r="E13" s="115" t="s">
+        <v>256</v>
+      </c>
+      <c r="F13" s="115" t="s">
+        <v>255</v>
+      </c>
+      <c r="G13" s="115" t="s">
+        <v>254</v>
+      </c>
+      <c r="H13" s="115">
+        <v>0</v>
+      </c>
+      <c r="I13" s="115" t="s">
+        <v>190</v>
+      </c>
+      <c r="J13" s="115" t="s">
+        <v>248</v>
+      </c>
+      <c r="K13" s="115" t="s">
+        <v>190</v>
+      </c>
+      <c r="L13" s="115">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="60">
+      <c r="A14" s="63">
+        <v>42709</v>
+      </c>
+      <c r="B14" s="119"/>
+      <c r="C14" s="119" t="s">
+        <v>259</v>
+      </c>
+      <c r="D14" s="115" t="s">
+        <v>261</v>
+      </c>
+      <c r="E14" s="115" t="s">
+        <v>260</v>
+      </c>
+      <c r="F14" s="115"/>
+      <c r="G14" s="115"/>
+      <c r="H14" s="115">
+        <v>0</v>
+      </c>
+      <c r="I14" s="115" t="s">
+        <v>190</v>
+      </c>
+      <c r="J14" s="115" t="s">
+        <v>257</v>
+      </c>
+      <c r="K14" s="115" t="s">
+        <v>190</v>
+      </c>
+      <c r="L14" s="115">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
